--- a/HW_Scripts/OCR_PADS/工作簿1.xlsx
+++ b/HW_Scripts/OCR_PADS/工作簿1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\HW_Scripts\OCR_PADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC143FA-65F1-4B96-ABEB-56104ED3845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB8384F-7204-422E-93CD-FD89C260734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE48259A-0192-448F-A777-BF08EB792027}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$260</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1342,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E31269A-37AD-4672-AB72-3E1617DB4566}">
   <dimension ref="A1:J260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9680,6 +9683,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B260" xr:uid="{0E31269A-37AD-4672-AB72-3E1617DB4566}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
